--- a/ConcordanceLibrary/PIOLab_RootClassification.xlsx
+++ b/ConcordanceLibrary/PIOLab_RootClassification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="819"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1151">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1713,12 +1713,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>WL</t>
-  </si>
-  <si>
-    <t>WLD</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -3439,6 +3433,57 @@
   </si>
   <si>
     <t>Landfill</t>
+  </si>
+  <si>
+    <t>ETH2</t>
+  </si>
+  <si>
+    <t>ET2</t>
+  </si>
+  <si>
+    <t>DDR2</t>
+  </si>
+  <si>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>BEL2</t>
+  </si>
+  <si>
+    <t>BE2</t>
+  </si>
+  <si>
+    <t>SDN2</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>YMD2</t>
+  </si>
+  <si>
+    <t>YD2</t>
   </si>
 </sst>
 </file>
@@ -3810,8 +3855,8 @@
   </sheetPr>
   <dimension ref="A1:Z246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3823,16 +3868,16 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="E1" s="1"/>
       <c r="Z1" s="8"/>
@@ -3845,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -3859,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
@@ -3873,10 +3918,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
@@ -3887,10 +3932,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
@@ -3901,10 +3946,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
@@ -3915,10 +3960,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
@@ -3929,10 +3974,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D8" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
@@ -3943,10 +3988,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
@@ -3957,10 +4002,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
@@ -3971,10 +4016,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
@@ -3985,10 +4030,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
@@ -3999,10 +4044,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
@@ -4013,10 +4058,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
@@ -4027,10 +4072,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
@@ -4041,10 +4086,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -4055,10 +4100,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -4069,10 +4114,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -4083,10 +4128,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -4097,10 +4142,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -4111,10 +4156,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -4122,13 +4167,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C22" t="s">
-        <v>595</v>
+        <v>1138</v>
       </c>
       <c r="D22" t="s">
-        <v>594</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -4139,10 +4184,10 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -4153,10 +4198,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D24" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -4167,10 +4212,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4181,10 +4226,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -4195,10 +4240,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D27" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -4206,13 +4251,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>601</v>
+      </c>
+      <c r="C28" t="s">
         <v>603</v>
       </c>
-      <c r="C28" t="s">
-        <v>605</v>
-      </c>
       <c r="D28" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -4223,10 +4268,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D29" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -4237,10 +4282,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -4248,13 +4293,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C31" t="s">
         <v>612</v>
       </c>
-      <c r="C31" t="s">
-        <v>614</v>
-      </c>
       <c r="D31" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -4262,13 +4307,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C32" t="s">
         <v>618</v>
       </c>
-      <c r="C32" t="s">
-        <v>620</v>
-      </c>
       <c r="D32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -4279,10 +4324,10 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -4293,10 +4338,10 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D34" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -4307,10 +4352,10 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D35" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -4321,10 +4366,10 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -4335,10 +4380,10 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D37" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -4349,10 +4394,10 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D38" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -4363,10 +4408,10 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -4374,13 +4419,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C40" t="s">
         <v>637</v>
       </c>
-      <c r="C40" t="s">
-        <v>639</v>
-      </c>
       <c r="D40" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -4388,13 +4433,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C41" t="s">
         <v>640</v>
       </c>
-      <c r="C41" t="s">
-        <v>642</v>
-      </c>
       <c r="D41" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -4402,13 +4447,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="C42" t="s">
         <v>643</v>
       </c>
-      <c r="C42" t="s">
-        <v>645</v>
-      </c>
       <c r="D42" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -4419,10 +4464,10 @@
         <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D43" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -4433,10 +4478,10 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D44" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -4447,10 +4492,10 @@
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D45" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -4458,13 +4503,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" t="s">
         <v>654</v>
       </c>
-      <c r="C46" t="s">
-        <v>656</v>
-      </c>
       <c r="D46" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -4472,13 +4517,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C47" t="s">
         <v>657</v>
       </c>
-      <c r="C47" t="s">
-        <v>659</v>
-      </c>
       <c r="D47" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -4489,10 +4534,10 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D48" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -4503,10 +4548,10 @@
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D49" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -4514,13 +4559,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C50" t="s">
         <v>672</v>
       </c>
-      <c r="C50" t="s">
-        <v>674</v>
-      </c>
       <c r="D50" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -4531,10 +4576,10 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D51" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -4545,10 +4590,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D52" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -4559,10 +4604,10 @@
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D53" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -4573,10 +4618,10 @@
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D54" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -4587,10 +4632,10 @@
         <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D55" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -4598,13 +4643,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C56" t="s">
         <v>685</v>
       </c>
-      <c r="C56" t="s">
-        <v>687</v>
-      </c>
       <c r="D56" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -4615,10 +4660,10 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D57" t="s">
-        <v>683</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -4629,10 +4674,10 @@
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D58" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -4643,10 +4688,10 @@
         <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D59" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -4657,10 +4702,10 @@
         <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D60" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -4668,13 +4713,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C61" t="s">
         <v>694</v>
       </c>
-      <c r="C61" t="s">
-        <v>696</v>
-      </c>
       <c r="D61" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -4682,13 +4727,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C62" t="s">
         <v>669</v>
       </c>
-      <c r="C62" t="s">
-        <v>671</v>
-      </c>
       <c r="D62" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -4696,13 +4741,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C63" t="s">
         <v>740</v>
       </c>
-      <c r="C63" t="s">
-        <v>742</v>
-      </c>
       <c r="D63" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -4713,10 +4758,10 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D64" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -4727,10 +4772,10 @@
         <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D65" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -4741,10 +4786,10 @@
         <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D66" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -4755,10 +4800,10 @@
         <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D67" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -4769,10 +4814,10 @@
         <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D68" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -4783,10 +4828,10 @@
         <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D69" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -4797,10 +4842,10 @@
         <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D70" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -4808,13 +4853,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C71" t="s">
-        <v>705</v>
+        <v>1134</v>
       </c>
       <c r="D71" t="s">
-        <v>704</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -4822,13 +4867,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C72" t="s">
         <v>713</v>
       </c>
-      <c r="C72" t="s">
-        <v>715</v>
-      </c>
       <c r="D72" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -4836,13 +4881,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C73" t="s">
         <v>710</v>
       </c>
-      <c r="C73" t="s">
-        <v>712</v>
-      </c>
       <c r="D73" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -4850,13 +4895,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C74" t="s">
         <v>716</v>
       </c>
-      <c r="C74" t="s">
-        <v>718</v>
-      </c>
       <c r="D74" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -4867,10 +4912,10 @@
         <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D75" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -4881,10 +4926,10 @@
         <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D76" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -4895,10 +4940,10 @@
         <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D77" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -4909,10 +4954,10 @@
         <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D78" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -4923,10 +4968,10 @@
         <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D79" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -4937,10 +4982,10 @@
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D80" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -4951,10 +4996,10 @@
         <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D81" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -4965,10 +5010,10 @@
         <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D82" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -4979,10 +5024,10 @@
         <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D83" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -4993,10 +5038,10 @@
         <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D84" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -5007,10 +5052,10 @@
         <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D85" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -5021,10 +5066,10 @@
         <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D86" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -5035,10 +5080,10 @@
         <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D87" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -5049,10 +5094,10 @@
         <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D88" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -5063,10 +5108,10 @@
         <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D89" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -5077,10 +5122,10 @@
         <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D90" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -5091,10 +5136,10 @@
         <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D91" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -5105,10 +5150,10 @@
         <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D92" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -5119,10 +5164,10 @@
         <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D93" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -5133,10 +5178,10 @@
         <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D94" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -5147,10 +5192,10 @@
         <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D95" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -5158,13 +5203,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C96" t="s">
         <v>770</v>
       </c>
-      <c r="C96" t="s">
-        <v>772</v>
-      </c>
       <c r="D96" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -5175,10 +5220,10 @@
         <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D97" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -5189,10 +5234,10 @@
         <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D98" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -5203,10 +5248,10 @@
         <v>78</v>
       </c>
       <c r="C99" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D99" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -5217,10 +5262,10 @@
         <v>79</v>
       </c>
       <c r="C100" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D100" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -5231,10 +5276,10 @@
         <v>80</v>
       </c>
       <c r="C101" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D101" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -5245,10 +5290,10 @@
         <v>81</v>
       </c>
       <c r="C102" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D102" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -5259,10 +5304,10 @@
         <v>82</v>
       </c>
       <c r="C103" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D103" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -5273,10 +5318,10 @@
         <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D104" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -5287,10 +5332,10 @@
         <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D105" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -5301,10 +5346,10 @@
         <v>85</v>
       </c>
       <c r="C106" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D106" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -5315,10 +5360,10 @@
         <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D107" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -5329,10 +5374,10 @@
         <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D108" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -5343,10 +5388,10 @@
         <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D109" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -5357,10 +5402,10 @@
         <v>89</v>
       </c>
       <c r="C110" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D110" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -5371,10 +5416,10 @@
         <v>90</v>
       </c>
       <c r="C111" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D111" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -5385,10 +5430,10 @@
         <v>91</v>
       </c>
       <c r="C112" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D112" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -5399,10 +5444,10 @@
         <v>92</v>
       </c>
       <c r="C113" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D113" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -5410,13 +5455,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C114" t="s">
         <v>813</v>
       </c>
-      <c r="C114" t="s">
-        <v>815</v>
-      </c>
       <c r="D114" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -5427,10 +5472,10 @@
         <v>93</v>
       </c>
       <c r="C115" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D115" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -5441,10 +5486,10 @@
         <v>94</v>
       </c>
       <c r="C116" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D116" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -5455,10 +5500,10 @@
         <v>95</v>
       </c>
       <c r="C117" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D117" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -5469,10 +5514,10 @@
         <v>96</v>
       </c>
       <c r="C118" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D118" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -5483,10 +5528,10 @@
         <v>97</v>
       </c>
       <c r="C119" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D119" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -5497,10 +5542,10 @@
         <v>98</v>
       </c>
       <c r="C120" t="s">
-        <v>561</v>
+        <v>1146</v>
       </c>
       <c r="D120" t="s">
-        <v>560</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -5511,10 +5556,10 @@
         <v>99</v>
       </c>
       <c r="C121" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D121" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -5525,10 +5570,10 @@
         <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D122" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -5536,13 +5581,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C123" t="s">
         <v>830</v>
       </c>
-      <c r="C123" t="s">
-        <v>832</v>
-      </c>
       <c r="D123" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -5550,13 +5595,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C124" t="s">
         <v>1034</v>
       </c>
-      <c r="C124" t="s">
-        <v>1036</v>
-      </c>
       <c r="D124" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -5567,10 +5612,10 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D125" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -5581,10 +5626,10 @@
         <v>102</v>
       </c>
       <c r="C126" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D126" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -5595,10 +5640,10 @@
         <v>103</v>
       </c>
       <c r="C127" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D127" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -5609,10 +5654,10 @@
         <v>104</v>
       </c>
       <c r="C128" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D128" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -5623,10 +5668,10 @@
         <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D129" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -5637,10 +5682,10 @@
         <v>106</v>
       </c>
       <c r="C130" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D130" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -5648,13 +5693,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="C131" t="s">
         <v>905</v>
       </c>
-      <c r="C131" t="s">
-        <v>907</v>
-      </c>
       <c r="D131" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -5665,10 +5710,10 @@
         <v>107</v>
       </c>
       <c r="C132" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D132" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -5679,10 +5724,10 @@
         <v>108</v>
       </c>
       <c r="C133" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D133" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -5693,10 +5738,10 @@
         <v>109</v>
       </c>
       <c r="C134" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D134" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -5707,10 +5752,10 @@
         <v>110</v>
       </c>
       <c r="C135" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D135" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -5721,10 +5766,10 @@
         <v>111</v>
       </c>
       <c r="C136" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D136" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -5735,10 +5780,10 @@
         <v>112</v>
       </c>
       <c r="C137" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D137" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -5746,13 +5791,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="C138" t="s">
         <v>855</v>
       </c>
-      <c r="C138" t="s">
-        <v>857</v>
-      </c>
       <c r="D138" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -5763,10 +5808,10 @@
         <v>113</v>
       </c>
       <c r="C139" t="s">
-        <v>561</v>
+        <v>1142</v>
       </c>
       <c r="D139" t="s">
-        <v>560</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -5777,10 +5822,10 @@
         <v>114</v>
       </c>
       <c r="C140" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D140" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -5791,10 +5836,10 @@
         <v>115</v>
       </c>
       <c r="C141" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D141" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -5805,10 +5850,10 @@
         <v>116</v>
       </c>
       <c r="C142" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D142" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -5819,10 +5864,10 @@
         <v>117</v>
       </c>
       <c r="C143" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D143" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -5833,10 +5878,10 @@
         <v>118</v>
       </c>
       <c r="C144" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D144" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -5847,10 +5892,10 @@
         <v>119</v>
       </c>
       <c r="C145" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -5861,10 +5906,10 @@
         <v>120</v>
       </c>
       <c r="C146" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D146" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -5875,10 +5920,10 @@
         <v>121</v>
       </c>
       <c r="C147" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D147" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -5889,10 +5934,10 @@
         <v>122</v>
       </c>
       <c r="C148" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D148" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -5903,10 +5948,10 @@
         <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D149" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -5914,13 +5959,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C150" t="s">
         <v>876</v>
       </c>
-      <c r="C150" t="s">
-        <v>878</v>
-      </c>
       <c r="D150" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -5931,10 +5976,10 @@
         <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D151" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -5945,10 +5990,10 @@
         <v>125</v>
       </c>
       <c r="C152" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D152" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -5959,10 +6004,10 @@
         <v>126</v>
       </c>
       <c r="C153" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D153" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -5973,10 +6018,10 @@
         <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D154" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -5987,10 +6032,10 @@
         <v>128</v>
       </c>
       <c r="C155" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D155" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -6001,10 +6046,10 @@
         <v>129</v>
       </c>
       <c r="C156" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D156" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -6012,13 +6057,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="C157" t="s">
         <v>895</v>
       </c>
-      <c r="C157" t="s">
-        <v>897</v>
-      </c>
       <c r="D157" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -6026,13 +6071,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C158" t="s">
         <v>803</v>
       </c>
-      <c r="C158" t="s">
-        <v>805</v>
-      </c>
       <c r="D158" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -6040,13 +6085,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C159" t="s">
         <v>983</v>
       </c>
-      <c r="C159" t="s">
-        <v>985</v>
-      </c>
       <c r="D159" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -6054,13 +6099,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C160" t="s">
         <v>900</v>
       </c>
-      <c r="C160" t="s">
-        <v>902</v>
-      </c>
       <c r="D160" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -6071,10 +6116,10 @@
         <v>130</v>
       </c>
       <c r="C161" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D161" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -6085,10 +6130,10 @@
         <v>131</v>
       </c>
       <c r="C162" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D162" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -6099,10 +6144,10 @@
         <v>132</v>
       </c>
       <c r="C163" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D163" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -6113,10 +6158,10 @@
         <v>133</v>
       </c>
       <c r="C164" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D164" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -6124,13 +6169,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C165" t="s">
         <v>735</v>
       </c>
-      <c r="C165" t="s">
-        <v>737</v>
-      </c>
       <c r="D165" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -6141,10 +6186,10 @@
         <v>134</v>
       </c>
       <c r="C166" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D166" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -6155,10 +6200,10 @@
         <v>135</v>
       </c>
       <c r="C167" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D167" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -6169,10 +6214,10 @@
         <v>136</v>
       </c>
       <c r="C168" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D168" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -6183,10 +6228,10 @@
         <v>137</v>
       </c>
       <c r="C169" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D169" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -6197,10 +6242,10 @@
         <v>138</v>
       </c>
       <c r="C170" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D170" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -6208,13 +6253,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C171" t="s">
         <v>922</v>
       </c>
-      <c r="C171" t="s">
-        <v>924</v>
-      </c>
       <c r="D171" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -6225,10 +6270,10 @@
         <v>139</v>
       </c>
       <c r="C172" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D172" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -6239,10 +6284,10 @@
         <v>140</v>
       </c>
       <c r="C173" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D173" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -6253,10 +6298,10 @@
         <v>141</v>
       </c>
       <c r="C174" t="s">
-        <v>561</v>
+        <v>1144</v>
       </c>
       <c r="D174" t="s">
-        <v>560</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -6267,10 +6312,10 @@
         <v>142</v>
       </c>
       <c r="C175" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D175" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -6278,13 +6323,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>664</v>
+      </c>
+      <c r="C176" t="s">
         <v>666</v>
       </c>
-      <c r="C176" t="s">
-        <v>668</v>
-      </c>
       <c r="D176" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -6295,10 +6340,10 @@
         <v>143</v>
       </c>
       <c r="C177" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D177" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -6309,10 +6354,10 @@
         <v>144</v>
       </c>
       <c r="C178" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D178" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -6323,10 +6368,10 @@
         <v>145</v>
       </c>
       <c r="C179" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D179" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -6337,10 +6382,10 @@
         <v>146</v>
       </c>
       <c r="C180" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D180" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -6351,10 +6396,10 @@
         <v>147</v>
       </c>
       <c r="C181" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D181" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -6365,10 +6410,10 @@
         <v>148</v>
       </c>
       <c r="C182" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D182" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -6382,7 +6427,7 @@
         <v>558</v>
       </c>
       <c r="D183" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -6393,10 +6438,10 @@
         <v>150</v>
       </c>
       <c r="C184" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D184" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -6404,13 +6449,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
+        <v>950</v>
+      </c>
+      <c r="C185" t="s">
         <v>952</v>
       </c>
-      <c r="C185" t="s">
-        <v>954</v>
-      </c>
       <c r="D185" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -6421,10 +6466,10 @@
         <v>151</v>
       </c>
       <c r="C186" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D186" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -6435,10 +6480,10 @@
         <v>152</v>
       </c>
       <c r="C187" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D187" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -6449,10 +6494,10 @@
         <v>153</v>
       </c>
       <c r="C188" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D188" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -6463,10 +6508,10 @@
         <v>154</v>
       </c>
       <c r="C189" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D189" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -6477,10 +6522,10 @@
         <v>155</v>
       </c>
       <c r="C190" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D190" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -6491,10 +6536,10 @@
         <v>156</v>
       </c>
       <c r="C191" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D191" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -6502,13 +6547,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C192" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D192" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -6519,10 +6564,10 @@
         <v>157</v>
       </c>
       <c r="C193" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D193" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -6533,10 +6578,10 @@
         <v>158</v>
       </c>
       <c r="C194" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D194" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -6547,10 +6592,10 @@
         <v>159</v>
       </c>
       <c r="C195" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D195" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -6561,10 +6606,10 @@
         <v>160</v>
       </c>
       <c r="C196" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D196" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -6575,10 +6620,10 @@
         <v>161</v>
       </c>
       <c r="C197" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D197" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -6586,13 +6631,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C198" t="s">
         <v>615</v>
       </c>
-      <c r="C198" t="s">
-        <v>617</v>
-      </c>
       <c r="D198" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -6603,10 +6648,10 @@
         <v>162</v>
       </c>
       <c r="C199" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D199" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -6617,10 +6662,10 @@
         <v>163</v>
       </c>
       <c r="C200" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D200" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -6628,13 +6673,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C201" t="s">
         <v>806</v>
       </c>
-      <c r="C201" t="s">
-        <v>808</v>
-      </c>
       <c r="D201" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -6645,10 +6690,10 @@
         <v>164</v>
       </c>
       <c r="C202" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D202" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -6656,13 +6701,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C203" t="s">
-        <v>985</v>
+        <v>1149</v>
       </c>
       <c r="D203" t="s">
-        <v>984</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -6673,10 +6718,10 @@
         <v>165</v>
       </c>
       <c r="C204" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D204" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -6687,10 +6732,10 @@
         <v>166</v>
       </c>
       <c r="C205" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D205" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -6701,10 +6746,10 @@
         <v>167</v>
       </c>
       <c r="C206" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D206" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -6712,13 +6757,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C207" t="s">
-        <v>991</v>
+        <v>1140</v>
       </c>
       <c r="D207" t="s">
-        <v>990</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -6729,10 +6774,10 @@
         <v>168</v>
       </c>
       <c r="C208" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D208" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -6743,10 +6788,10 @@
         <v>169</v>
       </c>
       <c r="C209" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D209" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -6757,10 +6802,10 @@
         <v>170</v>
       </c>
       <c r="C210" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D210" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -6768,13 +6813,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C211" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D211" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -6785,10 +6830,10 @@
         <v>171</v>
       </c>
       <c r="C212" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D212" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -6799,10 +6844,10 @@
         <v>172</v>
       </c>
       <c r="C213" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D213" t="s">
         <v>1077</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -6813,10 +6858,10 @@
         <v>173</v>
       </c>
       <c r="C214" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D214" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -6824,13 +6869,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C215" t="s">
         <v>1044</v>
       </c>
-      <c r="C215" t="s">
-        <v>1046</v>
-      </c>
       <c r="D215" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -6841,10 +6886,10 @@
         <v>174</v>
       </c>
       <c r="C216" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D216" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -6855,10 +6900,10 @@
         <v>175</v>
       </c>
       <c r="C217" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D217" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -6869,10 +6914,10 @@
         <v>176</v>
       </c>
       <c r="C218" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D218" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -6883,10 +6928,10 @@
         <v>177</v>
       </c>
       <c r="C219" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D219" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -6897,10 +6942,10 @@
         <v>178</v>
       </c>
       <c r="C220" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D220" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -6911,10 +6956,10 @@
         <v>179</v>
       </c>
       <c r="C221" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D221" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -6925,10 +6970,10 @@
         <v>180</v>
       </c>
       <c r="C222" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D222" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -6939,10 +6984,10 @@
         <v>181</v>
       </c>
       <c r="C223" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D223" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -6953,10 +6998,10 @@
         <v>182</v>
       </c>
       <c r="C224" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D224" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -6964,13 +7009,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C225" t="s">
         <v>1025</v>
       </c>
-      <c r="C225" t="s">
-        <v>1027</v>
-      </c>
       <c r="D225" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -6981,10 +7026,10 @@
         <v>183</v>
       </c>
       <c r="C226" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D226" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -6995,10 +7040,10 @@
         <v>184</v>
       </c>
       <c r="C227" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D227" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -7009,10 +7054,10 @@
         <v>185</v>
       </c>
       <c r="C228" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D228" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -7023,10 +7068,10 @@
         <v>186</v>
       </c>
       <c r="C229" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D229" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -7037,10 +7082,10 @@
         <v>187</v>
       </c>
       <c r="C230" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D230" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -7048,13 +7093,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C231" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D231" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -7065,10 +7110,10 @@
         <v>188</v>
       </c>
       <c r="C232" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D232" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -7076,13 +7121,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C233" t="s">
         <v>1050</v>
       </c>
-      <c r="C233" t="s">
-        <v>1052</v>
-      </c>
       <c r="D233" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -7090,13 +7135,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C234" t="s">
         <v>1037</v>
       </c>
-      <c r="C234" t="s">
-        <v>1039</v>
-      </c>
       <c r="D234" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -7107,10 +7152,10 @@
         <v>189</v>
       </c>
       <c r="C235" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D235" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
@@ -7121,10 +7166,10 @@
         <v>190</v>
       </c>
       <c r="C236" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D236" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
@@ -7135,10 +7180,10 @@
         <v>191</v>
       </c>
       <c r="C237" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D237" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
@@ -7149,10 +7194,10 @@
         <v>192</v>
       </c>
       <c r="C238" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D238" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -7160,13 +7205,13 @@
         <v>238</v>
       </c>
       <c r="B239" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C239" t="s">
         <v>1061</v>
       </c>
-      <c r="C239" t="s">
-        <v>1063</v>
-      </c>
       <c r="D239" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -7174,13 +7219,13 @@
         <v>239</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C240" t="s">
-        <v>742</v>
+        <v>1136</v>
       </c>
       <c r="D240" t="s">
-        <v>741</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
@@ -7191,10 +7236,10 @@
         <v>193</v>
       </c>
       <c r="C241" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D241" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
@@ -7205,10 +7250,10 @@
         <v>194</v>
       </c>
       <c r="C242" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D242" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
@@ -7216,13 +7261,13 @@
         <v>242</v>
       </c>
       <c r="B243" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C243" t="s">
         <v>1068</v>
       </c>
-      <c r="C243" t="s">
-        <v>1070</v>
-      </c>
       <c r="D243" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -7233,10 +7278,10 @@
         <v>195</v>
       </c>
       <c r="C244" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D244" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -7244,7 +7289,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C245" t="s">
         <v>559</v>
@@ -7261,10 +7306,10 @@
         <v>196</v>
       </c>
       <c r="C246" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D246" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -7485,10 +7530,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>538</v>
@@ -8400,10 +8445,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>538</v>
@@ -8438,7 +8483,7 @@
         <v>258</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -8468,7 +8513,7 @@
         <v>258</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -8483,7 +8528,7 @@
         <v>258</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -8498,7 +8543,7 @@
         <v>258</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -8528,7 +8573,7 @@
         <v>250</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -8543,7 +8588,7 @@
         <v>250</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -8567,13 +8612,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C12" t="s">
         <v>251</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -8582,13 +8627,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C13" t="s">
         <v>251</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -8597,13 +8642,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C14" t="s">
         <v>251</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -8612,13 +8657,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C15" t="s">
         <v>251</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -8627,13 +8672,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -8642,13 +8687,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -8656,13 +8701,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -8670,13 +8715,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O19" s="2"/>
     </row>
@@ -8685,13 +8730,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O20" s="2"/>
     </row>
@@ -8700,13 +8745,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O21" s="2"/>
     </row>
@@ -8715,13 +8760,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O22" s="2"/>
     </row>
@@ -8730,13 +8775,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -8744,13 +8789,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -8758,13 +8803,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -8772,13 +8817,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -8786,13 +8831,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -8800,13 +8845,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -8814,13 +8859,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -8828,13 +8873,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -8912,13 +8957,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C36" t="s">
         <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -8926,13 +8971,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C37" t="s">
         <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -8940,13 +8985,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C38" t="s">
         <v>198</v>
       </c>
       <c r="D38" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -8954,13 +8999,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C39" t="s">
         <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F39" s="5"/>
     </row>
@@ -8969,13 +9014,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C40" t="s">
         <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O40" s="2"/>
     </row>
@@ -8984,13 +9029,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C41" t="s">
         <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O41" s="2"/>
     </row>
@@ -8999,13 +9044,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C42" t="s">
         <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O42" s="2"/>
     </row>
@@ -9014,13 +9059,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C43" t="s">
         <v>271</v>
       </c>
       <c r="D43" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O43" s="2"/>
     </row>
@@ -9029,13 +9074,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C44" t="s">
         <v>271</v>
       </c>
       <c r="D44" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O44" s="2"/>
     </row>
@@ -9044,13 +9089,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C45" t="s">
         <v>271</v>
       </c>
       <c r="D45" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O45" s="2"/>
     </row>
@@ -9065,7 +9110,7 @@
         <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O46" s="2"/>
     </row>
@@ -9080,7 +9125,7 @@
         <v>199</v>
       </c>
       <c r="D47" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O47" s="2"/>
     </row>
@@ -9095,7 +9140,7 @@
         <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -9109,7 +9154,7 @@
         <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -9123,7 +9168,7 @@
         <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -9137,7 +9182,7 @@
         <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -9151,7 +9196,7 @@
         <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -9165,7 +9210,7 @@
         <v>199</v>
       </c>
       <c r="D53" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -9179,7 +9224,7 @@
         <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -9193,7 +9238,7 @@
         <v>199</v>
       </c>
       <c r="D55" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -9207,7 +9252,7 @@
         <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -9221,7 +9266,7 @@
         <v>199</v>
       </c>
       <c r="D57" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -9235,7 +9280,7 @@
         <v>199</v>
       </c>
       <c r="D58" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -9249,7 +9294,7 @@
         <v>199</v>
       </c>
       <c r="D59" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -9263,7 +9308,7 @@
         <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -9277,7 +9322,7 @@
         <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -9291,7 +9336,7 @@
         <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -9305,7 +9350,7 @@
         <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -9319,7 +9364,7 @@
         <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -9333,13 +9378,13 @@
         <v>199</v>
       </c>
       <c r="D65" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O65">
         <v>720911</v>
       </c>
       <c r="P65" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -9353,13 +9398,13 @@
         <v>199</v>
       </c>
       <c r="D66" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O66">
         <v>720912</v>
       </c>
       <c r="P66" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -9373,13 +9418,13 @@
         <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O67">
         <v>720913</v>
       </c>
       <c r="P67" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -9393,13 +9438,13 @@
         <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O68">
         <v>720914</v>
       </c>
       <c r="P68" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -9413,13 +9458,13 @@
         <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O69">
         <v>720921</v>
       </c>
       <c r="P69" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -9433,13 +9478,13 @@
         <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O70">
         <v>720922</v>
       </c>
       <c r="P70" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -9453,13 +9498,13 @@
         <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O71">
         <v>720923</v>
       </c>
       <c r="P71" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -9473,13 +9518,13 @@
         <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O72">
         <v>720924</v>
       </c>
       <c r="P72" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -9493,13 +9538,13 @@
         <v>199</v>
       </c>
       <c r="D73" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O73">
         <v>720931</v>
       </c>
       <c r="P73" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
@@ -9513,13 +9558,13 @@
         <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O74">
         <v>720932</v>
       </c>
       <c r="P74" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
@@ -9533,13 +9578,13 @@
         <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O75">
         <v>720933</v>
       </c>
       <c r="P75" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
@@ -9553,13 +9598,13 @@
         <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O76">
         <v>720934</v>
       </c>
       <c r="P76" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
@@ -9573,13 +9618,13 @@
         <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O77">
         <v>720941</v>
       </c>
       <c r="P77" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
@@ -9593,13 +9638,13 @@
         <v>199</v>
       </c>
       <c r="D78" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O78">
         <v>720942</v>
       </c>
       <c r="P78" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
@@ -9613,13 +9658,13 @@
         <v>199</v>
       </c>
       <c r="D79" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O79">
         <v>720943</v>
       </c>
       <c r="P79" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
@@ -9633,13 +9678,13 @@
         <v>199</v>
       </c>
       <c r="D80" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O80">
         <v>720944</v>
       </c>
       <c r="P80" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
@@ -9653,13 +9698,13 @@
         <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="O81">
         <v>720990</v>
       </c>
       <c r="P81" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
@@ -9673,7 +9718,7 @@
         <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
@@ -9687,7 +9732,7 @@
         <v>199</v>
       </c>
       <c r="D83" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
@@ -9701,7 +9746,7 @@
         <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
@@ -9715,7 +9760,7 @@
         <v>199</v>
       </c>
       <c r="D85" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
@@ -9729,7 +9774,7 @@
         <v>199</v>
       </c>
       <c r="D86" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
@@ -9743,7 +9788,7 @@
         <v>199</v>
       </c>
       <c r="D87" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
@@ -9757,7 +9802,7 @@
         <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
@@ -9771,7 +9816,7 @@
         <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
@@ -9785,7 +9830,7 @@
         <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
@@ -9799,7 +9844,7 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
@@ -9813,7 +9858,7 @@
         <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
@@ -9827,7 +9872,7 @@
         <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
@@ -9841,7 +9886,7 @@
         <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
@@ -9855,7 +9900,7 @@
         <v>199</v>
       </c>
       <c r="D95" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
@@ -9869,7 +9914,7 @@
         <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -9883,7 +9928,7 @@
         <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -9897,7 +9942,7 @@
         <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -9911,7 +9956,7 @@
         <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -9925,7 +9970,7 @@
         <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -9939,7 +9984,7 @@
         <v>199</v>
       </c>
       <c r="D101" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -9953,7 +9998,7 @@
         <v>199</v>
       </c>
       <c r="D102" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -9967,7 +10012,7 @@
         <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -9981,7 +10026,7 @@
         <v>199</v>
       </c>
       <c r="D104" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -9995,7 +10040,7 @@
         <v>199</v>
       </c>
       <c r="D105" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -10009,7 +10054,7 @@
         <v>199</v>
       </c>
       <c r="D106" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -10023,7 +10068,7 @@
         <v>199</v>
       </c>
       <c r="D107" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -10037,7 +10082,7 @@
         <v>199</v>
       </c>
       <c r="D108" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -10051,7 +10096,7 @@
         <v>199</v>
       </c>
       <c r="D109" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -10065,7 +10110,7 @@
         <v>199</v>
       </c>
       <c r="D110" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -10079,7 +10124,7 @@
         <v>199</v>
       </c>
       <c r="D111" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -10093,7 +10138,7 @@
         <v>199</v>
       </c>
       <c r="D112" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -10107,7 +10152,7 @@
         <v>199</v>
       </c>
       <c r="D113" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -10121,7 +10166,7 @@
         <v>199</v>
       </c>
       <c r="D114" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -10135,7 +10180,7 @@
         <v>199</v>
       </c>
       <c r="D115" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -10149,7 +10194,7 @@
         <v>199</v>
       </c>
       <c r="D116" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -10163,7 +10208,7 @@
         <v>199</v>
       </c>
       <c r="D117" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -10177,7 +10222,7 @@
         <v>199</v>
       </c>
       <c r="D118" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -10191,7 +10236,7 @@
         <v>199</v>
       </c>
       <c r="D119" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -10205,7 +10250,7 @@
         <v>199</v>
       </c>
       <c r="D120" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -10219,7 +10264,7 @@
         <v>199</v>
       </c>
       <c r="D121" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -10233,7 +10278,7 @@
         <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -10247,7 +10292,7 @@
         <v>199</v>
       </c>
       <c r="D123" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -10261,7 +10306,7 @@
         <v>199</v>
       </c>
       <c r="D124" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -10275,7 +10320,7 @@
         <v>199</v>
       </c>
       <c r="D125" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -10289,7 +10334,7 @@
         <v>199</v>
       </c>
       <c r="D126" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -10303,7 +10348,7 @@
         <v>200</v>
       </c>
       <c r="D127" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -10317,7 +10362,7 @@
         <v>200</v>
       </c>
       <c r="D128" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -10331,7 +10376,7 @@
         <v>200</v>
       </c>
       <c r="D129" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -10345,7 +10390,7 @@
         <v>200</v>
       </c>
       <c r="D130" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -10359,7 +10404,7 @@
         <v>200</v>
       </c>
       <c r="D131" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -10373,7 +10418,7 @@
         <v>200</v>
       </c>
       <c r="D132" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -10387,7 +10432,7 @@
         <v>200</v>
       </c>
       <c r="D133" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -10401,7 +10446,7 @@
         <v>200</v>
       </c>
       <c r="D134" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -10415,7 +10460,7 @@
         <v>200</v>
       </c>
       <c r="D135" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -10429,7 +10474,7 @@
         <v>200</v>
       </c>
       <c r="D136" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -10443,7 +10488,7 @@
         <v>200</v>
       </c>
       <c r="D137" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -10457,7 +10502,7 @@
         <v>200</v>
       </c>
       <c r="D138" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -10471,7 +10516,7 @@
         <v>200</v>
       </c>
       <c r="D139" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -10485,7 +10530,7 @@
         <v>200</v>
       </c>
       <c r="D140" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -10499,7 +10544,7 @@
         <v>200</v>
       </c>
       <c r="D141" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -10513,7 +10558,7 @@
         <v>200</v>
       </c>
       <c r="D142" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -10527,7 +10572,7 @@
         <v>200</v>
       </c>
       <c r="D143" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -10541,7 +10586,7 @@
         <v>200</v>
       </c>
       <c r="D144" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -10555,7 +10600,7 @@
         <v>200</v>
       </c>
       <c r="D145" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -10569,7 +10614,7 @@
         <v>200</v>
       </c>
       <c r="D146" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -10583,7 +10628,7 @@
         <v>200</v>
       </c>
       <c r="D147" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -10597,7 +10642,7 @@
         <v>200</v>
       </c>
       <c r="D148" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -10611,7 +10656,7 @@
         <v>200</v>
       </c>
       <c r="D149" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -10625,7 +10670,7 @@
         <v>200</v>
       </c>
       <c r="D150" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -10639,7 +10684,7 @@
         <v>200</v>
       </c>
       <c r="D151" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -10653,7 +10698,7 @@
         <v>200</v>
       </c>
       <c r="D152" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -10667,7 +10712,7 @@
         <v>200</v>
       </c>
       <c r="D153" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -10681,7 +10726,7 @@
         <v>200</v>
       </c>
       <c r="D154" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -10695,7 +10740,7 @@
         <v>200</v>
       </c>
       <c r="D155" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -10709,7 +10754,7 @@
         <v>200</v>
       </c>
       <c r="D156" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -10723,7 +10768,7 @@
         <v>200</v>
       </c>
       <c r="D157" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -10737,7 +10782,7 @@
         <v>200</v>
       </c>
       <c r="D158" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -10751,7 +10796,7 @@
         <v>200</v>
       </c>
       <c r="D159" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -10765,7 +10810,7 @@
         <v>200</v>
       </c>
       <c r="D160" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -10779,7 +10824,7 @@
         <v>200</v>
       </c>
       <c r="D161" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -10793,7 +10838,7 @@
         <v>200</v>
       </c>
       <c r="D162" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -10807,7 +10852,7 @@
         <v>200</v>
       </c>
       <c r="D163" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -10821,7 +10866,7 @@
         <v>200</v>
       </c>
       <c r="D164" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -10835,7 +10880,7 @@
         <v>200</v>
       </c>
       <c r="D165" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -10849,7 +10894,7 @@
         <v>200</v>
       </c>
       <c r="D166" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -10863,7 +10908,7 @@
         <v>200</v>
       </c>
       <c r="D167" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -10877,7 +10922,7 @@
         <v>200</v>
       </c>
       <c r="D168" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -10891,7 +10936,7 @@
         <v>200</v>
       </c>
       <c r="D169" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -10905,7 +10950,7 @@
         <v>200</v>
       </c>
       <c r="D170" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -10919,7 +10964,7 @@
         <v>200</v>
       </c>
       <c r="D171" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -10933,7 +10978,7 @@
         <v>200</v>
       </c>
       <c r="D172" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -10947,7 +10992,7 @@
         <v>200</v>
       </c>
       <c r="D173" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
@@ -10961,7 +11006,7 @@
         <v>200</v>
       </c>
       <c r="D174" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -10975,7 +11020,7 @@
         <v>200</v>
       </c>
       <c r="D175" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -10989,7 +11034,7 @@
         <v>200</v>
       </c>
       <c r="D176" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -11003,7 +11048,7 @@
         <v>200</v>
       </c>
       <c r="D177" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -11017,7 +11062,7 @@
         <v>200</v>
       </c>
       <c r="D178" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -11031,7 +11076,7 @@
         <v>200</v>
       </c>
       <c r="D179" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -11045,7 +11090,7 @@
         <v>200</v>
       </c>
       <c r="D180" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -11059,7 +11104,7 @@
         <v>200</v>
       </c>
       <c r="D181" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -11073,7 +11118,7 @@
         <v>200</v>
       </c>
       <c r="D182" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -11087,7 +11132,7 @@
         <v>200</v>
       </c>
       <c r="D183" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -11101,7 +11146,7 @@
         <v>200</v>
       </c>
       <c r="D184" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -11115,7 +11160,7 @@
         <v>200</v>
       </c>
       <c r="D185" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -11129,7 +11174,7 @@
         <v>200</v>
       </c>
       <c r="D186" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -11143,7 +11188,7 @@
         <v>200</v>
       </c>
       <c r="D187" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -11157,7 +11202,7 @@
         <v>200</v>
       </c>
       <c r="D188" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -11171,7 +11216,7 @@
         <v>200</v>
       </c>
       <c r="D189" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -11185,7 +11230,7 @@
         <v>200</v>
       </c>
       <c r="D190" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -11199,7 +11244,7 @@
         <v>200</v>
       </c>
       <c r="D191" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -11213,7 +11258,7 @@
         <v>200</v>
       </c>
       <c r="D192" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -11227,7 +11272,7 @@
         <v>200</v>
       </c>
       <c r="D193" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -11241,7 +11286,7 @@
         <v>200</v>
       </c>
       <c r="D194" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -11255,7 +11300,7 @@
         <v>200</v>
       </c>
       <c r="D195" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -11269,7 +11314,7 @@
         <v>200</v>
       </c>
       <c r="D196" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -11283,7 +11328,7 @@
         <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -11297,7 +11342,7 @@
         <v>200</v>
       </c>
       <c r="D198" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -11311,7 +11356,7 @@
         <v>200</v>
       </c>
       <c r="D199" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -11325,7 +11370,7 @@
         <v>200</v>
       </c>
       <c r="D200" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -11339,7 +11384,7 @@
         <v>200</v>
       </c>
       <c r="D201" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -11353,7 +11398,7 @@
         <v>200</v>
       </c>
       <c r="D202" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -11367,7 +11412,7 @@
         <v>200</v>
       </c>
       <c r="D203" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -11381,7 +11426,7 @@
         <v>200</v>
       </c>
       <c r="D204" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -11395,7 +11440,7 @@
         <v>200</v>
       </c>
       <c r="D205" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -11409,7 +11454,7 @@
         <v>200</v>
       </c>
       <c r="D206" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
@@ -11423,7 +11468,7 @@
         <v>200</v>
       </c>
       <c r="D207" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
@@ -11437,7 +11482,7 @@
         <v>200</v>
       </c>
       <c r="D208" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -11451,7 +11496,7 @@
         <v>200</v>
       </c>
       <c r="D209" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -11465,7 +11510,7 @@
         <v>200</v>
       </c>
       <c r="D210" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -11479,7 +11524,7 @@
         <v>200</v>
       </c>
       <c r="D211" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
@@ -11493,7 +11538,7 @@
         <v>200</v>
       </c>
       <c r="D212" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
@@ -11507,7 +11552,7 @@
         <v>200</v>
       </c>
       <c r="D213" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -11521,7 +11566,7 @@
         <v>200</v>
       </c>
       <c r="D214" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -11535,7 +11580,7 @@
         <v>200</v>
       </c>
       <c r="D215" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
@@ -11549,7 +11594,7 @@
         <v>200</v>
       </c>
       <c r="D216" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
@@ -11563,7 +11608,7 @@
         <v>200</v>
       </c>
       <c r="D217" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
@@ -11577,7 +11622,7 @@
         <v>200</v>
       </c>
       <c r="D218" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
@@ -11591,7 +11636,7 @@
         <v>200</v>
       </c>
       <c r="D219" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
@@ -11605,7 +11650,7 @@
         <v>200</v>
       </c>
       <c r="D220" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
@@ -11619,7 +11664,7 @@
         <v>200</v>
       </c>
       <c r="D221" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
@@ -11633,7 +11678,7 @@
         <v>200</v>
       </c>
       <c r="D222" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
@@ -11647,7 +11692,7 @@
         <v>200</v>
       </c>
       <c r="D223" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
@@ -11661,7 +11706,7 @@
         <v>200</v>
       </c>
       <c r="D224" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -11675,7 +11720,7 @@
         <v>200</v>
       </c>
       <c r="D225" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
@@ -11689,7 +11734,7 @@
         <v>200</v>
       </c>
       <c r="D226" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
@@ -11703,7 +11748,7 @@
         <v>200</v>
       </c>
       <c r="D227" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -11717,7 +11762,7 @@
         <v>200</v>
       </c>
       <c r="D228" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
@@ -11731,7 +11776,7 @@
         <v>200</v>
       </c>
       <c r="D229" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
@@ -11745,7 +11790,7 @@
         <v>200</v>
       </c>
       <c r="D230" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
@@ -11759,7 +11804,7 @@
         <v>200</v>
       </c>
       <c r="D231" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
@@ -11773,7 +11818,7 @@
         <v>200</v>
       </c>
       <c r="D232" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
@@ -11787,7 +11832,7 @@
         <v>215</v>
       </c>
       <c r="D233" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
@@ -11801,7 +11846,7 @@
         <v>215</v>
       </c>
       <c r="D234" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -12025,7 +12070,7 @@
         <v>214</v>
       </c>
       <c r="D250" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -12039,7 +12084,7 @@
         <v>214</v>
       </c>
       <c r="D251" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -12053,7 +12098,7 @@
         <v>214</v>
       </c>
       <c r="D252" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -12067,7 +12112,7 @@
         <v>214</v>
       </c>
       <c r="D253" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -12081,7 +12126,7 @@
         <v>214</v>
       </c>
       <c r="D254" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -12095,7 +12140,7 @@
         <v>214</v>
       </c>
       <c r="D255" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -12109,7 +12154,7 @@
         <v>214</v>
       </c>
       <c r="D256" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -12279,7 +12324,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -12290,10 +12335,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -12357,7 +12402,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -12365,7 +12410,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -12373,7 +12418,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -12407,10 +12452,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>538</v>
@@ -12465,7 +12510,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C6" t="s">
         <v>542</v>
@@ -12476,7 +12521,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C7" t="s">
         <v>542</v>
@@ -12487,7 +12532,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C8" t="s">
         <v>542</v>
@@ -12498,7 +12543,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C9" t="s">
         <v>542</v>
